--- a/Precision.xlsx
+++ b/Precision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="10080" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
   <si>
     <t>准</t>
   </si>
@@ -22,13 +22,19 @@
     <t>召</t>
   </si>
   <si>
-    <t>Ⅰ</t>
+    <t>A</t>
   </si>
   <si>
-    <t>Ⅱ</t>
+    <t>m_f1</t>
   </si>
   <si>
-    <t>Ⅲ</t>
+    <t>动物卫生安全</t>
+  </si>
+  <si>
+    <t>公共卫生安全</t>
+  </si>
+  <si>
+    <t>动物源性食品安全</t>
   </si>
 </sst>
 </file>
@@ -36,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,21 +57,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,14 +80,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,28 +89,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,24 +110,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +133,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -178,11 +156,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,19 +209,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,25 +359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,133 +377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,11 +403,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -429,71 +500,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,10 +508,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,133 +520,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -701,11 +707,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -735,11 +736,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>"precision"</c:f>
+              <c:f>"准确率"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>precision</c:v>
+                  <c:v>准确率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -763,13 +764,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Ⅰ</c:v>
+                  <c:v>动物卫生安全</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ⅱ</c:v>
+                  <c:v>公共卫生安全</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ⅲ</c:v>
+                  <c:v>动物源性食品安全</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -781,13 +782,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.735294117647059</c:v>
+                  <c:v>0.811111111111111</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.861635220125786</c:v>
+                  <c:v>0.900452488687783</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.918032786885246</c:v>
+                  <c:v>0.942982456140351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -798,11 +799,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>"recall"</c:f>
+              <c:f>"召回率"</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>recall</c:v>
+                  <c:v>召回率</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,13 +827,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Ⅰ</c:v>
+                  <c:v>动物卫生安全</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Ⅱ</c:v>
+                  <c:v>公共卫生安全</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Ⅲ</c:v>
+                  <c:v>动物源性食品安全</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -844,13 +845,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.675675675675676</c:v>
+                  <c:v>0.737373737373737</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.845679012345679</c:v>
+                  <c:v>0.929906542056075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96551724137931</c:v>
+                  <c:v>0.951327433628319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,6 +1884,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1892,7 +1894,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1903,87 +1905,87 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B1">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D1">
         <f>SUM(A1:C1)</f>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F1">
         <f>SUM(D1:D3)</f>
-        <v>410</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>137</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f>SUM(A2:C2)</f>
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="D3">
         <f>SUM(A3:C3)</f>
-        <v>174</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
         <f>SUM(A1:A3)</f>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <f>SUM(B1:B3)</f>
-        <v>159</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <f>SUM(C1:C3)</f>
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="D4">
         <f>A1+B2+C3</f>
-        <v>355</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
         <f>A1/A4</f>
-        <v>0.735294117647059</v>
+        <v>0.811111111111111</v>
       </c>
       <c r="B5">
         <f>B2/B4</f>
-        <v>0.861635220125786</v>
+        <v>0.900452488687783</v>
       </c>
       <c r="C5">
         <f>C3/C4</f>
-        <v>0.918032786885246</v>
+        <v>0.942982456140351</v>
       </c>
       <c r="D5">
         <f>AVERAGE(A5:C5)</f>
-        <v>0.838320708219364</v>
+        <v>0.884848685313082</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -1992,19 +1994,19 @@
     <row r="6" spans="1:5">
       <c r="A6">
         <f>A1/D1</f>
-        <v>0.675675675675676</v>
+        <v>0.737373737373737</v>
       </c>
       <c r="B6">
         <f>B2/D2</f>
-        <v>0.845679012345679</v>
+        <v>0.929906542056075</v>
       </c>
       <c r="C6">
         <f>C3/D3</f>
-        <v>0.96551724137931</v>
+        <v>0.951327433628319</v>
       </c>
       <c r="D6">
         <f>AVERAGE(A6:C6)</f>
-        <v>0.828957309800222</v>
+        <v>0.872869237686044</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
@@ -2013,36 +2015,42 @@
     <row r="7" spans="6:6">
       <c r="F7">
         <f>A1+B2+C3</f>
-        <v>355</v>
+        <v>487</v>
       </c>
     </row>
-    <row r="8" spans="6:6">
+    <row r="8" spans="5:6">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
       <c r="F8">
         <f>F7/F1</f>
-        <v>0.865853658536585</v>
+        <v>0.903525046382189</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9">
         <f>2*D5*D6</f>
-        <v>1.38986415807068</v>
+        <v>1.54471439483346</v>
       </c>
     </row>
-    <row r="10" spans="6:6">
+    <row r="10" spans="5:6">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
       <c r="F10">
         <f>F9/(D5+D6)</f>
-        <v>0.833612716685115</v>
+        <v>0.878818139487233</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
